--- a/data/180_P_label_case.xlsx
+++ b/data/180_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,126 +942,6 @@
         <v>0.002735081501029562</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>0.80435</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.002413417678815121</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>0.81779</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.002109737733066167</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>0.8312299999999999</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.001824125696885316</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>0.84472</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.001554380042882781</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>0.8582</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.001302299740072238</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>0.87169</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.001068921405713607</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>0.8851700000000001</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.0008551331565368653</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>0.89866</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0006621855393274476</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>0.91217</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.0004915363260138777</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>0.9256799999999999</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0003450491165230952</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>0.93919</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0002238792052138856</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>0.9527</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0001285644534905678</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>0.96621</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5.930803224763762e-05</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>0.97972</v>
-      </c>
-      <c r="B77" t="n">
-        <v>1.598175750321395e-05</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>0.99324</v>
-      </c>
-      <c r="B78" t="n">
-        <v>-1.320761437083464e-06</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
